--- a/Other/废弃.xlsx
+++ b/Other/废弃.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3280" yWindow="460" windowWidth="38400" windowHeight="20080" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Basic" sheetId="1" r:id="rId1"/>
-    <sheet name="Tech" sheetId="2" r:id="rId2"/>
-    <sheet name="Equip" sheetId="4" r:id="rId3"/>
-    <sheet name="Dig" sheetId="3" r:id="rId4"/>
-    <sheet name="Achieve" sheetId="5" r:id="rId5"/>
+    <sheet name="Summary" sheetId="6" r:id="rId1"/>
+    <sheet name="Basic" sheetId="1" r:id="rId2"/>
+    <sheet name="Tech" sheetId="2" r:id="rId3"/>
+    <sheet name="Equip" sheetId="4" r:id="rId4"/>
+    <sheet name="Dig" sheetId="3" r:id="rId5"/>
+    <sheet name="Achieve" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
   <si>
     <t>等级</t>
     <rPh sb="0" eb="1">
@@ -578,6 +579,105 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分职业</t>
+    <rPh sb="0" eb="1">
+      <t>fen'zhi'ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究次数</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ci'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害累计</t>
+    <rPh sb="0" eb="1">
+      <t>shag'hai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关层数</t>
+    <rPh sb="0" eb="1">
+      <t>tong'ugan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ceng'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返程次数</t>
+    <rPh sb="0" eb="1">
+      <t>fan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ci'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集宝箱数量</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao'xiang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料分4种类型10种品质</t>
+    <rPh sb="0" eb="1">
+      <t>cai'liao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhogn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lei'xign</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>pin'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏时长</t>
+    <rPh sb="0" eb="1">
+      <t>you'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'chagn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天</t>
+    <rPh sb="2" eb="3">
+      <t>tia</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -641,12 +741,12 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -924,10 +1024,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -957,33 +1081,33 @@
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5" t="s">
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5" t="s">
+      <c r="R1" s="8"/>
+      <c r="S1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="5"/>
+      <c r="T1" s="8"/>
       <c r="W1" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -4219,11 +4343,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -4429,34 +4553,34 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>0.08</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>0.16</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>0.24</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.32</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>0.4</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.48</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>0.64</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>0.72</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>0.8</v>
       </c>
     </row>
@@ -4464,43 +4588,43 @@
       <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <f>(20+B1*5)*30</f>
         <v>750</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <f t="shared" ref="C5:K5" si="0">(20+C1*5)*30</f>
         <v>900</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <f t="shared" si="0"/>
         <v>1650</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <f t="shared" si="0"/>
         <v>1950</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
@@ -4509,76 +4633,76 @@
       <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>0.4</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>0.6</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>0.8</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>1.2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>1.4</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>1.6</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>1.8</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>2</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>2.4</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>2.6</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <v>2.8</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>3</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <v>3.2</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>3.4</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>3.6</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <v>3.8</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <v>4</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="5">
         <v>4.2</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="5">
         <v>4.8</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="5">
         <v>5</v>
       </c>
     </row>
@@ -4586,34 +4710,34 @@
       <c r="A7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>0.08</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>0.16</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>0.24</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>0.32</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>0.4</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>0.48</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>0.64</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>0.72</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>0.8</v>
       </c>
     </row>
@@ -4621,34 +4745,34 @@
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>0.08</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>0.16</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>0.24</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>0.32</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>0.4</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>0.48</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>0.64</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>0.72</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>0.8</v>
       </c>
     </row>
@@ -4656,31 +4780,31 @@
       <c r="A9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>0.4</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>0.6</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>0.8</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>1.2</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>1.4</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>1.6</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>1.8</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4688,34 +4812,34 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>0.1</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>0.2</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>0.3</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>0.4</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>0.5</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>0.6</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>0.7</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>0.8</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>0.9</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4723,58 +4847,58 @@
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>0.05</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>0.1</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>0.15</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>0.2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>0.25</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>0.3</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>0.35</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>0.4</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>0.45</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>0.5</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>0.6</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <v>0.65</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="5">
         <v>0.7</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <v>0.75</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="5">
         <v>0.8</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="5">
         <v>0.85</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="5">
         <v>0.9</v>
       </c>
     </row>
@@ -4782,58 +4906,58 @@
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>0.05</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>0.1</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>0.15</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>0.2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>0.25</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>0.3</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>0.35</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>0.4</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>0.45</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>0.5</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>0.6</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="5">
         <v>0.65</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <v>0.7</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="5">
         <v>0.75</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="5">
         <v>0.8</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="5">
         <v>0.85</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="5">
         <v>0.9</v>
       </c>
     </row>
@@ -4935,49 +5059,49 @@
       <c r="A15" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>100</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>200</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>300</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>400</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>500</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>600</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>700</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>800</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>900</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>1000</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>1100</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <v>1200</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <v>1300</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="7">
         <v>1400</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="7">
         <v>1500</v>
       </c>
     </row>
@@ -4987,7 +5111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -5072,27 +5196,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
